--- a/PythonFürDatenanalyse/Mappe1.xlsx
+++ b/PythonFürDatenanalyse/Mappe1.xlsx
@@ -54,8 +54,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -336,13 +337,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
@@ -384,6 +388,24 @@
       </c>
       <c r="D3">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>SUM(A1:A3)</f>
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:D4" si="0">SUM(B1:B3)</f>
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D4" s="1">
+        <f ca="1">NOW()</f>
+        <v>42909.587253819445</v>
       </c>
     </row>
   </sheetData>

--- a/PythonFürDatenanalyse/Mappe1.xlsx
+++ b/PythonFürDatenanalyse/Mappe1.xlsx
@@ -54,9 +54,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -340,7 +339,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -403,9 +402,9 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D4" s="1">
-        <f ca="1">NOW()</f>
-        <v>42909.587253819445</v>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
